--- a/heatmap.xlsx
+++ b/heatmap.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="11190" activeTab="1"/>
+    <workbookView windowWidth="11950" windowHeight="12330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -60,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1068,22 +1081,22 @@
   <sheetPr/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.9363636363636" defaultRowHeight="37" customHeight="1" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="2" width="11.9363636363636" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.63636363636364" style="2" customWidth="1"/>
+    <col min="3" max="3" width="4.91818181818182" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.9363636363636" style="2" customWidth="1"/>
-    <col min="5" max="5" width="5.63636363636364" style="2" customWidth="1"/>
+    <col min="5" max="5" width="4.91818181818182" style="2" customWidth="1"/>
     <col min="6" max="6" width="11.9363636363636" style="2" customWidth="1"/>
-    <col min="7" max="7" width="5.63636363636364" style="2" customWidth="1"/>
+    <col min="7" max="7" width="4.91818181818182" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.9363636363636" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.63636363636364" style="2" customWidth="1"/>
+    <col min="9" max="9" width="4.91818181818182" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.9363636363636" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.63636363636364" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.91818181818182" style="2" customWidth="1"/>
     <col min="12" max="16384" width="11.9363636363636" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1121,19 +1134,19 @@
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="9">
-        <v>0.2481</v>
+        <v>0.625498575498575</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="9">
-        <v>1.1481</v>
+        <v>0.242165242165242</v>
       </c>
       <c r="G2" s="10"/>
       <c r="H2" s="9">
-        <v>0.1481</v>
+        <v>0.575498575498575</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="9">
-        <v>0.2481</v>
+        <v>0.625498575498575</v>
       </c>
       <c r="K2" s="10"/>
       <c r="L2" s="9">
@@ -1145,27 +1158,27 @@
         <v>7</v>
       </c>
       <c r="B3" s="9">
-        <v>0.4429</v>
+        <v>0.0678733031674208</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="9">
-        <v>1.1731</v>
+        <v>1.03064384582926</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="9">
-        <v>1.1314</v>
+        <v>1.00223475492017</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="9">
-        <v>1.6314</v>
+        <v>1.00223475492017</v>
       </c>
       <c r="I3" s="10"/>
       <c r="J3" s="9">
-        <v>2.1731</v>
+        <v>1.03064384582926</v>
       </c>
       <c r="K3" s="10"/>
       <c r="L3" s="9">
-        <v>0.4429</v>
+        <v>0.16787330316742</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:12">
@@ -1173,27 +1186,27 @@
         <v>8</v>
       </c>
       <c r="B4" s="9">
-        <v>0.5818</v>
+        <v>0.735133936635148</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="9">
-        <v>1.1869</v>
+        <v>1.57049764699885</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="9">
-        <v>1.3119</v>
+        <v>1.60458855608976</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="9">
-        <v>1.8119</v>
+        <v>1.60458855608976</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="9">
-        <v>1.1869</v>
+        <v>1.57049764699885</v>
       </c>
       <c r="K4" s="10"/>
       <c r="L4" s="9">
-        <v>1.5818</v>
+        <v>0.835133936635148</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:12">
@@ -1201,27 +1214,27 @@
         <v>9</v>
       </c>
       <c r="B5" s="9">
-        <v>0.7561</v>
+        <v>0.738921815423026</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="9">
-        <v>2.5945</v>
+        <v>1.40761885912007</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="9">
-        <v>2.0112</v>
+        <v>1.31670976821097</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="9">
-        <v>2.0112</v>
+        <v>1.40761885912007</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="9">
-        <v>1.5945</v>
+        <v>1.40761885912007</v>
       </c>
       <c r="K5" s="10"/>
       <c r="L5" s="9">
-        <v>0.7561</v>
+        <v>0.815844892346103</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:12">
@@ -1229,27 +1242,27 @@
         <v>10</v>
       </c>
       <c r="B6" s="9">
-        <v>1.3394</v>
+        <v>1.05374127535118</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="9">
-        <v>0.5529</v>
+        <v>1.06409016559137</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="9">
-        <v>0.5529</v>
+        <v>1.17659016559137</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="9">
-        <v>0.5529</v>
+        <v>1.25351324251445</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="9">
-        <v>0.5529</v>
+        <v>0.952979054480266</v>
       </c>
       <c r="K6" s="10"/>
       <c r="L6" s="9">
-        <v>0.3394</v>
+        <v>0.33151905312896</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:12">
@@ -1257,27 +1270,27 @@
         <v>11</v>
       </c>
       <c r="B7" s="9">
-        <v>0.1172</v>
+        <v>1.33412556941968</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="9">
-        <v>0.3723</v>
+        <v>0.648185719795626</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="9">
-        <v>0.539</v>
+        <v>0.639032401717823</v>
       </c>
       <c r="G7" s="10"/>
       <c r="H7" s="9">
-        <v>0.539</v>
+        <v>0.639032401717823</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="9">
-        <v>0.3723</v>
+        <v>0.416810179495601</v>
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="9">
-        <v>0.1172</v>
+        <v>0.0748663101604278</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:11">
@@ -1285,19 +1298,19 @@
         <v>12</v>
       </c>
       <c r="B8" s="9">
-        <v>1.0909</v>
+        <v>0.685977421271538</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="9">
-        <v>0.3223</v>
+        <v>0.114866310160427</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="9">
-        <v>0.0909</v>
+        <v>0.114866310160427</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="9">
-        <v>0.3223</v>
+        <v>0.114866310160427</v>
       </c>
       <c r="I8" s="10"/>
       <c r="K8" s="10"/>
@@ -1366,8 +1379,8 @@
   <sheetPr/>
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.9363636363636" defaultRowHeight="37" customHeight="1" outlineLevelRow="7"/>
@@ -1618,8 +1631,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
